--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H2">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I2">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J2">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.81052333333334</v>
+        <v>34.417786</v>
       </c>
       <c r="N2">
-        <v>77.43157000000001</v>
+        <v>103.253358</v>
       </c>
       <c r="O2">
-        <v>0.8046885485621978</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="P2">
-        <v>0.804688548562198</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="Q2">
-        <v>1540.502358469151</v>
+        <v>96.78211440368469</v>
       </c>
       <c r="R2">
-        <v>13864.52122622236</v>
+        <v>871.039029633162</v>
       </c>
       <c r="S2">
-        <v>0.1672646344723802</v>
+        <v>0.01033147058649226</v>
       </c>
       <c r="T2">
-        <v>0.1672646344723802</v>
+        <v>0.01033147058649226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H3">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I3">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J3">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.1747726666666667</v>
       </c>
       <c r="N3">
-        <v>0.524318</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O3">
-        <v>0.005448845870037691</v>
+        <v>0.004296022829771175</v>
       </c>
       <c r="P3">
-        <v>0.005448845870037692</v>
+        <v>0.004296022829771176</v>
       </c>
       <c r="Q3">
-        <v>10.43131523211822</v>
+        <v>0.4914571849557779</v>
       </c>
       <c r="R3">
-        <v>93.88183708906399</v>
+        <v>4.423114664602001</v>
       </c>
       <c r="S3">
-        <v>0.001132611138031806</v>
+        <v>5.246295229418542E-05</v>
       </c>
       <c r="T3">
-        <v>0.001132611138031806</v>
+        <v>5.246295229418542E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.68504933333333</v>
+        <v>2.811979666666667</v>
       </c>
       <c r="H4">
-        <v>179.055148</v>
+        <v>8.435939000000001</v>
       </c>
       <c r="I4">
-        <v>0.207862575863973</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="J4">
-        <v>0.2078625758639731</v>
+        <v>0.01221198172659148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.269627</v>
       </c>
       <c r="O4">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="P4">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="Q4">
-        <v>363.4745295988662</v>
+        <v>17.12460654719478</v>
       </c>
       <c r="R4">
-        <v>3271.270766389796</v>
+        <v>154.121458924753</v>
       </c>
       <c r="S4">
-        <v>0.03946533025356102</v>
+        <v>0.001828048187805037</v>
       </c>
       <c r="T4">
-        <v>0.03946533025356103</v>
+        <v>0.001828048187805038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>559.240372</v>
       </c>
       <c r="I5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J5">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.81052333333334</v>
+        <v>34.417786</v>
       </c>
       <c r="N5">
-        <v>77.43157000000001</v>
+        <v>103.253358</v>
       </c>
       <c r="O5">
-        <v>0.8046885485621978</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="P5">
-        <v>0.804688548562198</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="Q5">
-        <v>4811.428890149338</v>
+        <v>6415.938482018797</v>
       </c>
       <c r="R5">
-        <v>43302.86001134404</v>
+        <v>57743.44633816917</v>
       </c>
       <c r="S5">
-        <v>0.5224152304449684</v>
+        <v>0.6849000987438371</v>
       </c>
       <c r="T5">
-        <v>0.5224152304449685</v>
+        <v>0.6849000987438372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>559.240372</v>
       </c>
       <c r="I6">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J6">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>0.1747726666666667</v>
       </c>
       <c r="N6">
-        <v>0.524318</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O6">
-        <v>0.005448845870037691</v>
+        <v>0.004296022829771175</v>
       </c>
       <c r="P6">
-        <v>0.005448845870037692</v>
+        <v>0.004296022829771176</v>
       </c>
       <c r="Q6">
-        <v>32.57997704069955</v>
+        <v>32.57997704069956</v>
       </c>
       <c r="R6">
         <v>293.219793366296</v>
       </c>
       <c r="S6">
-        <v>0.003537468099851842</v>
+        <v>0.003477905774000795</v>
       </c>
       <c r="T6">
-        <v>0.003537468099851843</v>
+        <v>0.003477905774000797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>559.240372</v>
       </c>
       <c r="I7">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678946</v>
       </c>
       <c r="J7">
-        <v>0.6492141976897894</v>
+        <v>0.8095640809678947</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.269627</v>
       </c>
       <c r="O7">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="P7">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="Q7">
         <v>1135.234777753471</v>
@@ -880,10 +880,10 @@
         <v>10217.11299978124</v>
       </c>
       <c r="S7">
-        <v>0.1232614991449691</v>
+        <v>0.1211860764500567</v>
       </c>
       <c r="T7">
-        <v>0.1232614991449691</v>
+        <v>0.1211860764500567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>123.115666</v>
       </c>
       <c r="I8">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J8">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.81052333333334</v>
+        <v>34.417786</v>
       </c>
       <c r="N8">
-        <v>77.43157000000001</v>
+        <v>103.253358</v>
       </c>
       <c r="O8">
-        <v>0.8046885485621978</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="P8">
-        <v>0.804688548562198</v>
+        <v>0.8460109765801216</v>
       </c>
       <c r="Q8">
-        <v>1059.226589997291</v>
+        <v>1412.456215211825</v>
       </c>
       <c r="R8">
-        <v>9533.039309975622</v>
+        <v>12712.10593690643</v>
       </c>
       <c r="S8">
-        <v>0.1150086836448492</v>
+        <v>0.1507794072497922</v>
       </c>
       <c r="T8">
-        <v>0.1150086836448492</v>
+        <v>0.1507794072497922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>123.115666</v>
       </c>
       <c r="I9">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J9">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>0.1747726666666667</v>
       </c>
       <c r="N9">
-        <v>0.524318</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O9">
-        <v>0.005448845870037691</v>
+        <v>0.004296022829771175</v>
       </c>
       <c r="P9">
-        <v>0.005448845870037692</v>
+        <v>0.004296022829771176</v>
       </c>
       <c r="Q9">
-        <v>7.172417751754222</v>
+        <v>7.172417751754224</v>
       </c>
       <c r="R9">
-        <v>64.55175976578799</v>
+        <v>64.55175976578801</v>
       </c>
       <c r="S9">
-        <v>0.0007787666321540428</v>
+        <v>0.0007656541034761945</v>
       </c>
       <c r="T9">
-        <v>0.0007787666321540429</v>
+        <v>0.0007656541034761946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>123.115666</v>
       </c>
       <c r="I10">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="J10">
-        <v>0.1429232264462375</v>
+        <v>0.1782239373055139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.269627</v>
       </c>
       <c r="O10">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="P10">
-        <v>0.1898626055677644</v>
+        <v>0.1496930005901073</v>
       </c>
       <c r="Q10">
         <v>249.9196995196203</v>
@@ -1066,10 +1066,10 @@
         <v>2249.277295676582</v>
       </c>
       <c r="S10">
-        <v>0.02713577616923427</v>
+        <v>0.02667887595224553</v>
       </c>
       <c r="T10">
-        <v>0.02713577616923427</v>
+        <v>0.02667887595224554</v>
       </c>
     </row>
   </sheetData>
